--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,167 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F8" s="3">
         <v>11300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>7300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F10" s="3">
         <v>6900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F12" s="3">
         <v>8400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F17" s="3">
         <v>24400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J17" s="3">
         <v>13700</v>
       </c>
-      <c r="H17" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1074,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12300</v>
+        <v>-18000</v>
       </c>
       <c r="E21" s="3">
-        <v>-10100</v>
+        <v>-14100</v>
       </c>
       <c r="F21" s="3">
         <v>-12300</v>
       </c>
       <c r="G21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-9800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-9400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1077,57 +1155,69 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1149,14 +1239,20 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1704,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>139000</v>
+      </c>
+      <c r="F41" s="3">
         <v>39500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>138100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,23 +1735,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F42" s="3">
         <v>74600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>83200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,26 +1770,32 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,26 +1805,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F44" s="3">
         <v>9200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,26 +1840,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,26 +1875,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>216700</v>
+      </c>
+      <c r="F46" s="3">
         <v>131100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>140600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>151500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1910,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,26 +1945,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F48" s="3">
         <v>6300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1980,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,26 +2085,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2155,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>231900</v>
+      </c>
+      <c r="F54" s="3">
         <v>137900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>146800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>157500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2224,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,25 +2255,31 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>5800</v>
+        <v>6700</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2024,25 +2290,31 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9500</v>
+        <v>16600</v>
       </c>
       <c r="E59" s="3">
-        <v>7400</v>
+        <v>14600</v>
       </c>
       <c r="F59" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2053,26 +2325,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F60" s="3">
         <v>19400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,25 +2360,31 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10200</v>
+        <v>16100</v>
       </c>
       <c r="E61" s="3">
-        <v>12000</v>
+        <v>7200</v>
       </c>
       <c r="F61" s="3">
-        <v>13700</v>
+        <v>8700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2111,37 +2395,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2535,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F66" s="3">
         <v>29600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>27400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>28400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2725,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-196700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-163200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-150300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-139700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2865,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>177800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>192700</v>
+      </c>
+      <c r="F76" s="3">
         <v>108300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>119400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>129200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-14400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-9900</v>
       </c>
-      <c r="H89" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F94" s="3">
         <v>7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-83600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>96400</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>113300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-96100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>98400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>-10200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-9500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E8" s="3">
         <v>15200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="3">
         <v>9500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
         <v>11900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5500</v>
       </c>
       <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>5500</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E17" s="3">
         <v>34200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1155,16 +1195,16 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1173,51 +1213,57 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1245,14 +1291,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,29 +1792,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E41" s="3">
         <v>123100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>139000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,26 +1828,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E42" s="3">
         <v>47300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>56300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>74600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1776,29 +1866,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,29 +1904,32 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E44" s="3">
         <v>15900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,29 +1942,32 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,29 +1980,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264300</v>
+      </c>
+      <c r="E46" s="3">
         <v>197600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>216700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>131100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>140600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>151500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,29 +2056,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E48" s="3">
         <v>21600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2100,20 +2220,20 @@
         <v>1600</v>
       </c>
       <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,29 +2284,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>287400</v>
+      </c>
+      <c r="E54" s="3">
         <v>220700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>231900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>137900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>146800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>157500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,29 +2356,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2270,20 +2404,20 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>6700</v>
       </c>
       <c r="G58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,29 +2430,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E59" s="3">
         <v>16600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,29 +2468,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E60" s="3">
         <v>18800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,29 +2506,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E61" s="3">
         <v>16100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2401,34 +2544,37 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="E62" s="3">
         <v>8100</v>
       </c>
       <c r="F62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,29 +2696,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E66" s="3">
         <v>43000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,29 +2902,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-196700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-178000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-163200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-150300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-139700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,29 +3054,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>245400</v>
+      </c>
+      <c r="E76" s="3">
         <v>177800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>192700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>108300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>119400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>129200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,19 +3229,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3051,23 +3250,26 @@
       <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>-300</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E94" s="3">
         <v>4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>96400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>113300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-96100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>98400</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-10200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E10" s="3">
         <v>6700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5500</v>
       </c>
       <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>5500</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E17" s="3">
         <v>28300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,75 +1153,81 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-9800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,16 +1238,16 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1216,54 +1256,60 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1294,14 +1340,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1645,81 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,32 +1879,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>215300</v>
+      </c>
+      <c r="E41" s="3">
         <v>218300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>139000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,29 +1918,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>13100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>47300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>56300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>74600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,32 +1959,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,32 +2000,35 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E44" s="3">
         <v>23400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,32 +2041,35 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,32 +2082,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>257900</v>
+      </c>
+      <c r="E46" s="3">
         <v>264300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>216700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>140600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>151500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,32 +2164,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E48" s="3">
         <v>21400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,32 +2328,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
         <v>1600</v>
       </c>
       <c r="F52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3">
         <v>1500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E54" s="3">
         <v>287400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>220700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>231900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>137900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>146800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>157500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,32 +2487,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,32 +2526,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>6700</v>
       </c>
       <c r="H58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,32 +2567,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E59" s="3">
         <v>15200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,32 +2608,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E60" s="3">
         <v>17700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,32 +2649,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E61" s="3">
         <v>16300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2547,37 +2690,40 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>7900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>8100</v>
       </c>
       <c r="F62" s="3">
         <v>8100</v>
       </c>
       <c r="G62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,32 +2854,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E66" s="3">
         <v>41900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,32 +3076,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-227800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-214900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-196700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-178000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-163200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-150300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-139700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,32 +3240,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E76" s="3">
         <v>245400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>177800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>192700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>108300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>119400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>129200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,13 +3438,13 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3253,23 +3452,26 @@
       <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-9900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-300</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E94" s="3">
         <v>29700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-83600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>83600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>96400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>113300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>95200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-96100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>98400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-10200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,205 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E8" s="3">
         <v>19600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E9" s="3">
         <v>5300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>5500</v>
       </c>
       <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="N12" s="3">
+        <v>5500</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E17" s="3">
         <v>32400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1176,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-9800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,16 +1280,16 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1259,57 +1298,63 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1343,14 +1388,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +1965,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E41" s="3">
         <v>215300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,32 +2007,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>13100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>47300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>56300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>74600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,35 +2051,38 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E43" s="3">
         <v>10700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,35 +2095,38 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E44" s="3">
         <v>28900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,35 +2139,38 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2183,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E46" s="3">
         <v>257900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>264300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>197600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>216700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>140600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>151500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2271,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E48" s="3">
         <v>21100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2447,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1600</v>
       </c>
       <c r="F52" s="3">
         <v>1600</v>
       </c>
       <c r="G52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H52" s="3">
         <v>1500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2535,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E54" s="3">
         <v>280700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>287400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>220700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>231900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>137900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>146800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>157500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2617,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,35 +2659,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>6700</v>
       </c>
       <c r="I58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,35 +2703,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E59" s="3">
         <v>17500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2747,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E60" s="3">
         <v>21100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,35 +2791,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E61" s="3">
         <v>14800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,40 +2835,43 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8100</v>
       </c>
       <c r="G62" s="3">
         <v>8100</v>
       </c>
       <c r="H62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3011,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E66" s="3">
         <v>43600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3249,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-243700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-227800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-214900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-196700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-178000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-163200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-139700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3425,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225700</v>
+      </c>
+      <c r="E76" s="3">
         <v>237000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>245400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>177800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>192700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>108300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>119400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>129200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,13 +3639,13 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -3455,23 +3653,26 @@
       <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>-300</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="E94" s="3">
         <v>12100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>29700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-83600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>83600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>96400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>113300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-164800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>95200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-96100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>98400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>-10200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E8" s="3">
         <v>22700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>6500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E10" s="3">
         <v>16200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5500</v>
       </c>
       <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+      <c r="O12" s="3">
+        <v>5500</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E17" s="3">
         <v>38600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1283,16 +1323,16 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1301,60 +1341,66 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,14 +1437,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2052,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E41" s="3">
         <v>50400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>215300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>218300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,35 +2097,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E42" s="3">
         <v>151900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>13100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>47300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>56300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>74600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>83200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,38 +2144,41 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E43" s="3">
         <v>11700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,38 +2191,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E44" s="3">
         <v>29900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>28900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>23400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,38 +2238,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,38 +2285,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>233100</v>
+      </c>
+      <c r="E46" s="3">
         <v>246300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>257900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>264300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>197600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>216700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>140600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>151500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,31 +2332,34 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>6800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2274,38 +2379,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E48" s="3">
         <v>23900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2459,29 +2579,29 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>1600</v>
       </c>
       <c r="H52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I52" s="3">
         <v>1500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>500</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,38 +2661,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>269100</v>
+      </c>
+      <c r="E54" s="3">
         <v>272000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>280700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>287400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>220700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>231900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>137900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>146800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>157500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,38 +2748,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,38 +2793,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>6700</v>
       </c>
       <c r="J58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,38 +2840,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E59" s="3">
         <v>20800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,38 +2887,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E60" s="3">
         <v>25600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,38 +2934,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E61" s="3">
         <v>13300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,43 +2981,46 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E62" s="3">
         <v>7500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8100</v>
       </c>
       <c r="H62" s="3">
         <v>8100</v>
       </c>
       <c r="I62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,38 +3169,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E66" s="3">
         <v>46400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,38 +3423,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-243700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-227800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-214900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-196700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-178000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-163200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-150300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-139700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,38 +3611,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E76" s="3">
         <v>225700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>245400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>177800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>192700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>108300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>119400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>129200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,13 +3825,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -3642,13 +3841,13 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -3656,23 +3855,26 @@
       <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-9900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>-300</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-153600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>29700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-83600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>83600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>96400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>113300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-164800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>95200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-96100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>98400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>-10200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E8" s="3">
         <v>31900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E10" s="3">
         <v>24000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E12" s="3">
         <v>10300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5500</v>
       </c>
       <c r="O12" s="3">
         <v>5500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
+      <c r="P12" s="3">
+        <v>5500</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E17" s="3">
         <v>49400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-9800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1326,16 +1366,16 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1344,68 +1384,74 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1440,14 +1486,17 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2139,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E41" s="3">
         <v>57000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>215300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>218300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,38 +2187,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E42" s="3">
         <v>120400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>151900</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
         <v>13100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>47300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>56300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>74600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>83200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,41 +2237,44 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E43" s="3">
         <v>19600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,41 +2287,44 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E44" s="3">
         <v>33500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>28900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,41 +2337,44 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,41 +2387,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E46" s="3">
         <v>233100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>246300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>257900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>264300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>197600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>216700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>140600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>151500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,16 +2437,19 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>6800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>6800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2361,8 +2466,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2382,41 +2487,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E48" s="3">
         <v>27400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,41 +2687,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
       </c>
       <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
         <v>1700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>1600</v>
       </c>
       <c r="I52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J52" s="3">
         <v>1500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276400</v>
+      </c>
+      <c r="E54" s="3">
         <v>269100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>272000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>280700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>287400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>231900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>157500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,41 +2879,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,41 +2927,44 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>6700</v>
       </c>
       <c r="K58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,41 +2977,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E59" s="3">
         <v>24800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,41 +3027,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E60" s="3">
         <v>33500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,41 +3077,44 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E61" s="3">
         <v>11800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,46 +3127,49 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E62" s="3">
         <v>19500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8100</v>
       </c>
       <c r="I62" s="3">
         <v>8100</v>
       </c>
       <c r="J62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,41 +3327,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E66" s="3">
         <v>64800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,41 +3597,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-243700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-227800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-214900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-196700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-178000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-163200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-139700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,41 +3797,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>208300</v>
+      </c>
+      <c r="E76" s="3">
         <v>204300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>225700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>245400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>177800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>192700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>108300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>119400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>129200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,16 +4024,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -3844,13 +4043,13 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -3858,23 +4057,26 @@
       <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-16400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>-9900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-300</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>-300</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E94" s="3">
         <v>27100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-153600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>29700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>83600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>96400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>113300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E102" s="3">
         <v>6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-164800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>95200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>98400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>-10200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E8" s="3">
         <v>55900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E10" s="3">
         <v>46000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E12" s="3">
         <v>11800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5500</v>
       </c>
       <c r="P12" s="3">
         <v>5500</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
+      <c r="Q12" s="3">
+        <v>5500</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E17" s="3">
         <v>56100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,113 +1278,120 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-22500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-9800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1369,16 +1409,16 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1387,66 +1427,72 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1489,14 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E41" s="3">
         <v>84300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>215300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E42" s="3">
         <v>90500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>120400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>151900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>13100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>47300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>56300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>74600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,44 +2330,47 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E43" s="3">
         <v>25000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,44 +2383,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E44" s="3">
         <v>36100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>33500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>28900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,44 +2436,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E46" s="3">
         <v>239600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>233100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>246300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>257900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>264300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>197600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>216700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>140600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>151500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,19 +2542,22 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="E47" s="3">
         <v>6800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>6800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2490,44 +2595,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E48" s="3">
         <v>28300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,35 +2819,35 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
       </c>
       <c r="G52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1600</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
       </c>
       <c r="J52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E54" s="3">
         <v>276400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>272000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>280700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>287400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>231900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>157500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,44 +3061,47 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>6700</v>
       </c>
       <c r="L58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,44 +3114,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E59" s="3">
         <v>29200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E60" s="3">
         <v>36000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,44 +3220,47 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E61" s="3">
         <v>12800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,49 +3273,52 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E62" s="3">
         <v>19200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>8100</v>
       </c>
       <c r="J62" s="3">
         <v>8100</v>
       </c>
       <c r="K62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E66" s="3">
         <v>68000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-265800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-267700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-267300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-243700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-227800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-214900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-196700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-178000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-163200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-139700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E76" s="3">
         <v>208300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>204300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>237000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>245400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>177800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>192700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>108300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>119400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>129200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,19 +4223,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -4046,13 +4245,13 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -4060,23 +4259,26 @@
       <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>-9900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>-300</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>27200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>27100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-153600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>29700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>83600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>96400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>113300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-164800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>95200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-96100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>98400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>-10200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E8" s="3">
         <v>65200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>55900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E9" s="3">
         <v>10900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E10" s="3">
         <v>54300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E12" s="3">
         <v>13700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>5500</v>
       </c>
       <c r="Q12" s="3">
         <v>5500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
+      <c r="R12" s="3">
+        <v>5500</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E17" s="3">
         <v>62300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>56100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,113 +1321,119 @@
         <v>-700</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1412,16 +1451,16 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1430,69 +1469,75 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1548,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1538,14 +1583,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1993,111 @@
         <v>700</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2312,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E41" s="3">
         <v>91200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>138100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,44 +2366,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E42" s="3">
         <v>91800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>120400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>151900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>13100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>47300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>56300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>74600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>83200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,47 +2422,50 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E43" s="3">
         <v>30000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,47 +2478,50 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E44" s="3">
         <v>38700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>36100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>28900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>23400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,47 +2534,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,47 +2590,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>285900</v>
+      </c>
+      <c r="E46" s="3">
         <v>256000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>239600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>233100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>246300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>257900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>264300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>197600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>216700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>140600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>151500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,22 +2646,25 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6800</v>
       </c>
       <c r="F47" s="3">
         <v>6800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>6800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2681,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2598,47 +2702,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E48" s="3">
         <v>34900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2926,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
       </c>
       <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1600</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
       </c>
       <c r="K52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L52" s="3">
         <v>1500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3038,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>345700</v>
+      </c>
+      <c r="E54" s="3">
         <v>299000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>276400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>269100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>272000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>280700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>287400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>220700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>231900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>157500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3140,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,47 +3194,50 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>6700</v>
       </c>
       <c r="M58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,47 +3250,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E59" s="3">
         <v>33900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3306,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E60" s="3">
         <v>40300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,47 +3362,50 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E61" s="3">
         <v>14200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,52 +3418,55 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E62" s="3">
         <v>24200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8100</v>
       </c>
       <c r="K62" s="3">
         <v>8100</v>
       </c>
       <c r="L62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3642,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E66" s="3">
         <v>78700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3944,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-252800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-265800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-267700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-267300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-243700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-227800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-214900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-196700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-178000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-163200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-150300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-139700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4168,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E76" s="3">
         <v>220300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>204300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>237000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>245400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>177800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>192700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>108300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>119400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>129200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,22 +4421,23 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -4248,13 +4446,13 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -4262,23 +4460,26 @@
       <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E89" s="3">
         <v>9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-300</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-300</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>27200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>27100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-153600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>29700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>83600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>96400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>113300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-164800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>95200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-96100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>98400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E8" s="3">
         <v>84200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>65200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E9" s="3">
         <v>12700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E10" s="3">
         <v>71500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E12" s="3">
         <v>14700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>5500</v>
       </c>
       <c r="R12" s="3">
         <v>5500</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
+      <c r="S12" s="3">
+        <v>5500</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E17" s="3">
         <v>70200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
       </c>
       <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-9800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,10 +1473,10 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1454,16 +1494,16 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1472,77 +1512,83 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E23" s="3">
         <v>13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1551,7 +1597,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1586,14 +1632,17 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E26" s="3">
         <v>12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E27" s="3">
         <v>12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
       </c>
       <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E33" s="3">
         <v>12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E35" s="3">
         <v>12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,50 +2399,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E41" s="3">
         <v>89200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>138100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,47 +2456,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E42" s="3">
         <v>111800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>91800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>90500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>120400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>151900</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>13100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>47300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>56300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>74600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>83200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,50 +2515,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E43" s="3">
         <v>37400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,50 +2574,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E44" s="3">
         <v>43000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>36100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>28900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,50 +2633,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,50 +2692,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E46" s="3">
         <v>285900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>256000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>233100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>246300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>257900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>264300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>197600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>216700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>140600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>151500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,25 +2751,28 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3">
         <v>6000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6800</v>
       </c>
       <c r="G47" s="3">
         <v>6800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>6800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2684,8 +2789,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2705,50 +2810,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E48" s="3">
         <v>51900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,50 +3046,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1700</v>
       </c>
       <c r="G52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H52" s="3">
         <v>1800</v>
       </c>
       <c r="I52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J52" s="3">
         <v>1700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>1600</v>
       </c>
       <c r="L52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M52" s="3">
         <v>1500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,50 +3164,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>372500</v>
+      </c>
+      <c r="E54" s="3">
         <v>345700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>299000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>276400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>269100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>272000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>280700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>287400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>231900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>157500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,50 +3271,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,50 +3328,53 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>6700</v>
       </c>
       <c r="N58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,50 +3387,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E59" s="3">
         <v>42600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,50 +3446,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E60" s="3">
         <v>51600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,50 +3505,53 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3421,55 +3564,58 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E62" s="3">
         <v>40600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>8100</v>
       </c>
       <c r="L62" s="3">
         <v>8100</v>
       </c>
       <c r="M62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,50 +3800,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E66" s="3">
         <v>103900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>78700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>41900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,50 +4118,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-238300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-252800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-265800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-267700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-243700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-227800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-214900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-196700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-178000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-163200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-150300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-139700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,50 +4354,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E76" s="3">
         <v>241800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>220300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>204300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>237000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>245400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>192700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>108300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>119400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>129200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E81" s="3">
         <v>12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,25 +4620,26 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -4449,13 +4648,13 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4463,23 +4662,26 @@
       <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>20800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3">
         <v>-9900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>-300</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>27200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>27100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-153600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>29700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-83600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>83600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>96400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>113300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-164800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>95200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-96100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>98400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3">
         <v>-10200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E8" s="3">
         <v>93600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>84200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>65200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E9" s="3">
         <v>12900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E10" s="3">
         <v>80700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E12" s="3">
         <v>17000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>5500</v>
       </c>
       <c r="S12" s="3">
         <v>5500</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
+      <c r="T12" s="3">
+        <v>5500</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E17" s="3">
         <v>78300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>70200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E18" s="3">
         <v>15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>-700</v>
       </c>
       <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E21" s="3">
         <v>16000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-9800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,10 +1516,10 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1497,16 +1537,16 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1515,83 +1555,89 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E23" s="3">
         <v>14700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1600,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1635,14 +1681,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E26" s="3">
         <v>14500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E27" s="3">
         <v>14500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>700</v>
       </c>
       <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E33" s="3">
         <v>14500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E35" s="3">
         <v>14500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,53 +2486,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E41" s="3">
         <v>66300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>215300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>139000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>138100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,50 +2546,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E42" s="3">
         <v>134900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>111800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>91800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>90500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>120400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>151900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>13100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>47300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>56300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>74600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>83200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,53 +2608,56 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E43" s="3">
         <v>47800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,53 +2670,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E44" s="3">
         <v>53400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>38700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>15900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2636,53 +2732,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,53 +2794,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E46" s="3">
         <v>309900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>285900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>256000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>239600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>233100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>246300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>257900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>264300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>197600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>216700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>140600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>151500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,28 +2856,31 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E47" s="3">
         <v>5900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6800</v>
       </c>
       <c r="H47" s="3">
         <v>6800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>6800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2792,8 +2897,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2813,53 +2918,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E48" s="3">
         <v>54600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>51900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,53 +3166,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1700</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
       </c>
       <c r="J52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1600</v>
       </c>
       <c r="L52" s="3">
         <v>1600</v>
       </c>
       <c r="M52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N52" s="3">
         <v>1500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,53 +3290,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>417100</v>
+      </c>
+      <c r="E54" s="3">
         <v>372500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>345700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>299000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>269100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>272000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>280700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>287400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>231900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>146800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>157500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,53 +3402,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,53 +3462,56 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>6700</v>
       </c>
       <c r="O58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,53 +3524,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E59" s="3">
         <v>34300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,53 +3586,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E60" s="3">
         <v>51000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,53 +3648,56 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E61" s="3">
         <v>9000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3567,58 +3710,61 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E62" s="3">
         <v>44600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>8100</v>
       </c>
       <c r="M62" s="3">
         <v>8100</v>
       </c>
       <c r="N62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,53 +3958,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E66" s="3">
         <v>104700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>103900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>78700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,53 +4292,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-212700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-238300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-252800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-265800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-267700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-243700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-227800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-214900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-196700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-178000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-163200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-150300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-139700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,53 +4540,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E76" s="3">
         <v>267800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>241800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>220300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>204300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>237000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>245400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>108300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>119400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>129200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E81" s="3">
         <v>14500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,28 +4819,29 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -4651,13 +4850,13 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -4665,23 +4864,26 @@
       <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3">
         <v>-9900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-300</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>-300</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>27200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>27100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-153600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>29700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>16800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-83600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>83600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>96400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>113300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-164800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>95200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-96100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>98400</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3">
         <v>-10200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E8" s="3">
         <v>120700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>93600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>84200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>65200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E9" s="3">
         <v>16700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E10" s="3">
         <v>104000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>80700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>54300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E12" s="3">
         <v>20800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>5500</v>
       </c>
       <c r="T12" s="3">
         <v>5500</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
+      <c r="U12" s="3">
+        <v>5500</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E17" s="3">
         <v>91200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>70200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>56100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>38600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E18" s="3">
         <v>29500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-700</v>
       </c>
       <c r="G20" s="3">
         <v>-700</v>
       </c>
       <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E21" s="3">
         <v>27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-9800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,10 +1559,10 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1540,16 +1580,16 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1558,89 +1598,95 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E23" s="3">
         <v>26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1649,7 +1695,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1684,14 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E26" s="3">
         <v>25600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="3">
         <v>25600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>700</v>
       </c>
       <c r="G32" s="3">
         <v>700</v>
       </c>
       <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E33" s="3">
         <v>25600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E35" s="3">
         <v>25600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E41" s="3">
         <v>99900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>215300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>139000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>138100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E42" s="3">
         <v>125000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>134900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>111800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>91800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>90500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>120400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>151900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
         <v>13100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>47300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>56300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>74600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>83200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,56 +2701,59 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E43" s="3">
         <v>59800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,56 +2766,59 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E44" s="3">
         <v>60000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>53400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>38700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,56 +2831,59 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>395300</v>
+      </c>
+      <c r="E46" s="3">
         <v>352000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>309900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>285900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>256000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>239600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>233100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>246300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>257900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>264300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>197600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>216700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>140600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>151500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,31 +2961,34 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E47" s="3">
         <v>4500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6800</v>
       </c>
       <c r="I47" s="3">
         <v>6800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>6800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2900,8 +3005,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2921,56 +3026,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E48" s="3">
         <v>58300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>51900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1700</v>
       </c>
       <c r="H52" s="3">
         <v>1700</v>
       </c>
       <c r="I52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1800</v>
       </c>
       <c r="K52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L52" s="3">
         <v>1700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1600</v>
       </c>
       <c r="M52" s="3">
         <v>1600</v>
       </c>
       <c r="N52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O52" s="3">
         <v>1500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
       <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>475800</v>
+      </c>
+      <c r="E54" s="3">
         <v>417100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>372500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>345700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>299000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>269100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>272000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>280700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>287400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>231900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>157500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,56 +3596,59 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>6700</v>
       </c>
       <c r="P58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,56 +3661,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E59" s="3">
         <v>49900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E60" s="3">
         <v>66200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,56 +3791,59 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,61 +3856,64 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E62" s="3">
         <v>39400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>44600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>8100</v>
       </c>
       <c r="N62" s="3">
         <v>8100</v>
       </c>
       <c r="O62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E66" s="3">
         <v>112100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>104700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>103900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>78700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>68000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-177700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-212700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-238300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-252800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-265800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-267700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-243700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-227800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-214900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-196700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-178000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-163200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-150300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-139700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355900</v>
+      </c>
+      <c r="E76" s="3">
         <v>305100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>241800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>220300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>204300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>237000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>245400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>177800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>108300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>119400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>129200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E81" s="3">
         <v>25600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,31 +5018,32 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -4853,13 +5052,13 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -4867,23 +5066,26 @@
       <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E89" s="3">
         <v>28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3">
         <v>-9900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-11400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-300</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>-300</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>27200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>27100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-153600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>29700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-83600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,93 +6041,99 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>83600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>96400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>113300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E102" s="3">
         <v>33700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-164800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>95200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-96100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>98400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3">
         <v>-10200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9500</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E8" s="3">
         <v>131300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>120700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>93600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>84200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>65200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E9" s="3">
         <v>17900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E10" s="3">
         <v>113400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>104000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>80700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>54300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E12" s="3">
         <v>20200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6100</v>
-      </c>
-      <c r="T12" s="3">
-        <v>5500</v>
       </c>
       <c r="U12" s="3">
         <v>5500</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
+      <c r="V12" s="3">
+        <v>5500</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E17" s="3">
         <v>94600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>91200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>56100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E18" s="3">
         <v>36700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,143 +1446,150 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
       </c>
       <c r="I20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E21" s="3">
         <v>36700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>27700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-22500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-9800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1562,10 +1601,10 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1583,16 +1622,16 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
@@ -1601,95 +1640,101 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E23" s="3">
         <v>35100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-96300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1698,7 +1743,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1733,14 +1778,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E26" s="3">
         <v>35000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E27" s="3">
         <v>35000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
       </c>
       <c r="I32" s="3">
+        <v>700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E33" s="3">
         <v>35000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E35" s="3">
         <v>35000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2659,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>156600</v>
+      </c>
+      <c r="E41" s="3">
         <v>127800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>215300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>139000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>138100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2725,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E42" s="3">
         <v>122900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>125000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>134900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>111800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>91800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>90500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>120400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>151900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
         <v>13100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>47300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>56300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>74600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>83200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,59 +2793,62 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E43" s="3">
         <v>64200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2769,59 +2861,62 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E44" s="3">
         <v>69000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>60000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>53400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>38700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,59 +2929,62 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E45" s="3">
         <v>11400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,59 +2997,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>459300</v>
+      </c>
+      <c r="E46" s="3">
         <v>395300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>352000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>309900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>285900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>256000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>233100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>246300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>257900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>264300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>197600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>216700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>140600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>151500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,34 +3065,37 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
         <v>4600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6800</v>
       </c>
       <c r="J47" s="3">
         <v>6800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>6800</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -3008,8 +3112,8 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3029,59 +3133,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E48" s="3">
         <v>72400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>58300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>51900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3405,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1700</v>
       </c>
       <c r="J52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K52" s="3">
         <v>1800</v>
       </c>
       <c r="L52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M52" s="3">
         <v>1700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1600</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
       <c r="O52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P52" s="3">
         <v>1500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
       <c r="R52" s="3">
+        <v>500</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3541,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>646100</v>
+      </c>
+      <c r="E54" s="3">
         <v>475800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>417100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>372500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>345700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>299000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>269100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>272000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>280700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>287400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>231900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>157500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,59 +3663,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,50 +3741,50 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>6700</v>
       </c>
       <c r="Q58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,59 +3797,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E59" s="3">
         <v>50800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>33900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7300</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,59 +3865,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E60" s="3">
         <v>54200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,59 +3933,62 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E61" s="3">
         <v>14900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,64 +4001,67 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E62" s="3">
         <v>50800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>39400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>44600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>8100</v>
       </c>
       <c r="O62" s="3">
         <v>8100</v>
       </c>
       <c r="P62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4273,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E66" s="3">
         <v>119900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>104700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>103900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>78700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>68000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4639,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-177700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-212700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-238300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-252800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-265800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-267700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-267300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-243700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-227800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-214900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-196700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-178000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-163200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-150300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-139700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4911,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>511300</v>
+      </c>
+      <c r="E76" s="3">
         <v>355900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>305100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>241800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>220300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>204300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>225700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>237000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>245400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>177800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>192700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>108300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>119400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>129200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E81" s="3">
         <v>35000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,34 +5216,35 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
@@ -5055,13 +5253,13 @@
         <v>500</v>
       </c>
       <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5069,23 +5267,26 @@
       <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E89" s="3">
         <v>34500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3">
         <v>-9900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-300</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>-300</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>27200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>27100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-153600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>29700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>16800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-83600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,82 +6286,88 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>83600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>96400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>113300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6135,8 +6383,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6174,8 +6422,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,60 +6434,63 @@
         <v>28400</v>
       </c>
       <c r="E102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F102" s="3">
         <v>33700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-164800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>95200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-96100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>98400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3">
         <v>-10200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DB25F-1F52-4EC3-902A-BF708294A2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SWAV" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,11 +689,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:X1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -679,21 +716,20 @@
     <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,14 +790,8 @@
       <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,14 +852,8 @@
       <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,14 +914,8 @@
       <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,14 +976,8 @@
       <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,10 +1000,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1052,14 +1062,8 @@
       <c r="V12" s="3">
         <v>5500</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1120,14 +1124,8 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,14 +1186,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,14 +1248,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,10 +1269,8 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1347,14 +1331,8 @@
       <c r="V17" s="3">
         <v>11100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1415,14 +1393,8 @@
       <c r="V18" s="3">
         <v>-9800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,10 +1417,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1509,14 +1479,8 @@
       <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1577,14 +1541,8 @@
       <c r="V21" s="3">
         <v>-9400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,14 +1603,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1713,14 +1665,8 @@
       <c r="V23" s="3">
         <v>-9600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1781,14 +1727,8 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1849,14 +1789,8 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,14 +1851,8 @@
       <c r="V26" s="3">
         <v>-9600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1985,14 +1913,8 @@
       <c r="V27" s="3">
         <v>-9600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2053,14 +1975,8 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2121,14 +2037,8 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2189,14 +2099,8 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2257,14 +2161,8 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-      <c r="W31" s="3">
-        <v>0</v>
-      </c>
-      <c r="X31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2325,14 +2223,8 @@
       <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2393,14 +2285,8 @@
       <c r="V33" s="3">
         <v>-9600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2461,14 +2347,8 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2529,19 +2409,13 @@
       <c r="V35" s="3">
         <v>-9600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2602,14 +2476,8 @@
       <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,10 +2500,8 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,10 +2524,8 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2722,14 +2586,8 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2790,14 +2648,8 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2858,14 +2710,8 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2926,14 +2772,8 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2994,14 +2834,8 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3062,14 +2896,8 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3130,14 +2958,8 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3198,14 +3020,8 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3266,14 +3082,8 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3334,14 +3144,8 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-      <c r="W50" s="3">
-        <v>0</v>
-      </c>
-      <c r="X50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3402,14 +3206,8 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-      <c r="W51" s="3">
-        <v>0</v>
-      </c>
-      <c r="X51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3470,14 +3268,8 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3538,14 +3330,8 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-      <c r="W53" s="3">
-        <v>0</v>
-      </c>
-      <c r="X53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3606,14 +3392,8 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,10 +3416,8 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,10 +3440,8 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3726,14 +3502,8 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3794,14 +3564,8 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3862,14 +3626,8 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3930,14 +3688,8 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3998,14 +3750,8 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4066,14 +3812,8 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4134,14 +3874,8 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-      <c r="W63" s="3">
-        <v>0</v>
-      </c>
-      <c r="X63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4202,14 +3936,8 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-      <c r="W64" s="3">
-        <v>0</v>
-      </c>
-      <c r="X64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4270,14 +3998,8 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-      <c r="W65" s="3">
-        <v>0</v>
-      </c>
-      <c r="X65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4338,14 +4060,8 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,10 +4084,8 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4432,14 +4146,8 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-      <c r="W68" s="3">
-        <v>0</v>
-      </c>
-      <c r="X68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4500,14 +4208,8 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-      <c r="W69" s="3">
-        <v>0</v>
-      </c>
-      <c r="X69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4568,14 +4270,8 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4636,14 +4332,8 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-      <c r="W71" s="3">
-        <v>0</v>
-      </c>
-      <c r="X71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4704,14 +4394,8 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4772,14 +4456,8 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-      <c r="W73" s="3">
-        <v>0</v>
-      </c>
-      <c r="X73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4840,14 +4518,8 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-      <c r="W74" s="3">
-        <v>0</v>
-      </c>
-      <c r="X74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4908,14 +4580,8 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-      <c r="W75" s="3">
-        <v>0</v>
-      </c>
-      <c r="X75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4976,14 +4642,8 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5044,19 +4704,13 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-      <c r="W77" s="3">
-        <v>0</v>
-      </c>
-      <c r="X77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -5117,14 +4771,8 @@
       <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5185,14 +4833,8 @@
       <c r="V81" s="3">
         <v>-9600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,10 +4857,8 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5279,14 +4919,8 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5347,14 +4981,8 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-      <c r="W84" s="3">
-        <v>0</v>
-      </c>
-      <c r="X84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5415,14 +5043,8 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-      <c r="W85" s="3">
-        <v>0</v>
-      </c>
-      <c r="X85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5483,14 +5105,8 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-      <c r="W86" s="3">
-        <v>0</v>
-      </c>
-      <c r="X86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5551,14 +5167,8 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-      <c r="W87" s="3">
-        <v>0</v>
-      </c>
-      <c r="X87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5619,14 +5229,8 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-      <c r="W88" s="3">
-        <v>0</v>
-      </c>
-      <c r="X88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5687,14 +5291,8 @@
       <c r="V89" s="3">
         <v>-11400</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,10 +5315,8 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-      <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5781,14 +5377,8 @@
       <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5849,14 +5439,8 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-      <c r="W92" s="3">
-        <v>0</v>
-      </c>
-      <c r="X92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5917,14 +5501,8 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-      <c r="W93" s="3">
-        <v>0</v>
-      </c>
-      <c r="X93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5985,14 +5563,8 @@
       <c r="V94" s="3">
         <v>1500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,10 +5587,8 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6079,14 +5649,8 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6147,14 +5711,8 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-      <c r="W97" s="3">
-        <v>0</v>
-      </c>
-      <c r="X97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6215,14 +5773,8 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-      <c r="W98" s="3">
-        <v>0</v>
-      </c>
-      <c r="X98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6283,14 +5835,8 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-      <c r="W99" s="3">
-        <v>0</v>
-      </c>
-      <c r="X99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6351,14 +5897,8 @@
       <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6419,14 +5959,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6486,12 +6020,6 @@
       </c>
       <c r="V102" s="3">
         <v>-9500</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DB25F-1F52-4EC3-902A-BF708294A2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="SWAV" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,295 +654,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:X1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E8" s="3">
         <v>144000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>131300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>120700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>84200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E9" s="3">
         <v>17500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E10" s="3">
         <v>126500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>113400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>80700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>46000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E12" s="3">
         <v>23700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6100</v>
-      </c>
-      <c r="U12" s="3">
-        <v>5500</v>
       </c>
       <c r="V12" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1269,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E17" s="3">
         <v>101600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>91200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>56100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E18" s="3">
         <v>42400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-12100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1417,140 +1413,147 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-700</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
       </c>
       <c r="J20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E21" s="3">
         <v>47200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-22500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-18000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-12300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-9800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1562,10 +1565,10 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1583,16 +1586,16 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1601,89 +1604,95 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E23" s="3">
         <v>44700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-96300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1692,7 +1701,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1727,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1789,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E26" s="3">
         <v>140900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E27" s="3">
         <v>140900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1975,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2037,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2099,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2161,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>700</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
       </c>
       <c r="J32" s="3">
+        <v>700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E33" s="3">
         <v>140900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2347,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E35" s="3">
         <v>140900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2500,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2524,121 +2573,125 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>280900</v>
+      </c>
+      <c r="E41" s="3">
         <v>156600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>127800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>215300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>218300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>123100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>139000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>138100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E42" s="3">
         <v>147900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>122900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>125000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>134900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>111800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>91800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>90500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>151900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
         <v>13100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>47300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>56300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>74600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>83200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,285 +2701,300 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E43" s="3">
         <v>71400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E44" s="3">
         <v>75100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>69000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>60000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>53400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>38700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>15900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7000</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>590800</v>
+      </c>
+      <c r="E46" s="3">
         <v>459300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>395300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>352000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>309900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>285900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>256000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>233100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>246300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>257900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>264300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>197600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>216700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>140600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>151500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>6800</v>
       </c>
       <c r="K47" s="3">
         <v>6800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>6800</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3011,8 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2958,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E48" s="3">
         <v>80500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>58300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>51900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3082,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3144,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3206,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E52" s="3">
         <v>102800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
       </c>
       <c r="K52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L52" s="3">
         <v>1800</v>
       </c>
       <c r="M52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N52" s="3">
         <v>1700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1600</v>
       </c>
       <c r="O52" s="3">
         <v>1600</v>
       </c>
       <c r="P52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3330,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>783200</v>
+      </c>
+      <c r="E54" s="3">
         <v>646100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>475800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>417100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>372500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>345700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>299000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>276400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>269100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>272000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>280700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>287400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>220700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>231900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>137900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>146800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>157500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3416,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3440,256 +3533,269 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>6700</v>
       </c>
       <c r="R58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E59" s="3">
         <v>56700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>33900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7300</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E60" s="3">
         <v>63400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>51000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3697,123 +3803,129 @@
         <v>24200</v>
       </c>
       <c r="E61" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F61" s="3">
         <v>14900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E62" s="3">
         <v>47200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>39400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>44600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>8100</v>
       </c>
       <c r="P62" s="3">
         <v>8100</v>
       </c>
       <c r="Q62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3874,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3936,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3998,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212600</v>
+      </c>
+      <c r="E66" s="3">
         <v>134800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>119900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>104700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>103900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>68000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4084,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4146,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4208,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4270,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4332,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-177700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-212700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-238300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-252800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-265800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-267700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-267300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-243700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-227800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-214900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-196700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-163200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-150300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-139700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4456,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4518,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4580,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>570700</v>
+      </c>
+      <c r="E76" s="3">
         <v>511300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>305100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>241800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>220300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>204300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>225700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>237000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>245400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>177800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>192700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>108300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>119400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>129200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4704,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E81" s="3">
         <v>140900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4857,37 +5018,38 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>500</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
@@ -4896,13 +5058,13 @@
         <v>500</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -4910,17 +5072,20 @@
       <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4981,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5043,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5105,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5167,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5229,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E89" s="3">
         <v>52400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14400</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3">
         <v>-9900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5315,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-300</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5439,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5501,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>27200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>27100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-153600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>29700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>16800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-83600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5587,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5649,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5711,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5773,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5835,82 +6041,88 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E100" s="3">
         <v>9600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>83600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>96400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>113300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5926,8 +6138,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5959,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28400</v>
+        <v>124300</v>
       </c>
       <c r="E102" s="3">
         <v>28400</v>
       </c>
       <c r="F102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G102" s="3">
         <v>33700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-164800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>95200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-96100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>98400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3">
         <v>-10200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E8" s="3">
         <v>161100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>131300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>120700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>84200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>65200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E9" s="3">
         <v>21100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E10" s="3">
         <v>140000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>126500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>113400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>80700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E12" s="3">
         <v>27000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6100</v>
-      </c>
-      <c r="V12" s="3">
-        <v>5500</v>
       </c>
       <c r="W12" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E17" s="3">
         <v>121300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>101600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>56100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E18" s="3">
         <v>39800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-12100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,149 +1447,156 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-700</v>
       </c>
       <c r="J20" s="3">
         <v>-700</v>
       </c>
       <c r="K20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E21" s="3">
         <v>43100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-22500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-14100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-12300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>-9800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
@@ -1568,10 +1608,10 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1589,16 +1629,16 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1607,95 +1647,101 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E23" s="3">
         <v>40700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-96300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1704,7 +1750,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E26" s="3">
         <v>39100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>140900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E27" s="3">
         <v>39100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>140900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>700</v>
       </c>
       <c r="J32" s="3">
         <v>700</v>
       </c>
       <c r="K32" s="3">
+        <v>700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E33" s="3">
         <v>39100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>140900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E35" s="3">
         <v>39100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>140900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,127 +2660,131 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E41" s="3">
         <v>280900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>156600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>127800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>215300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>218300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>123100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>139000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>138100</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E42" s="3">
         <v>135900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>147900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>122900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>125000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>134900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>111800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>91800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>90500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>120400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>151900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
         <v>13100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>47300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>56300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>74600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,300 +2794,315 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E43" s="3">
         <v>84300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>71400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3900</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E44" s="3">
         <v>83300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>75100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>69000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>53400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>38700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7000</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>6400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>456400</v>
+      </c>
+      <c r="E46" s="3">
         <v>590800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>459300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>395300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>352000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>309900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>285900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>256000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>239600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>233100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>246300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>257900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>264300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>197600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>216700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>131100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>140600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>151500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>6800</v>
       </c>
       <c r="L47" s="3">
         <v>6800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>6800</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3119,8 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3029,96 +3134,102 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E48" s="3">
         <v>85700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>134500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E52" s="3">
         <v>104100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1700</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
       </c>
       <c r="L52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M52" s="3">
         <v>1800</v>
       </c>
       <c r="N52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O52" s="3">
         <v>1700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1600</v>
       </c>
       <c r="P52" s="3">
         <v>1600</v>
       </c>
       <c r="Q52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R52" s="3">
         <v>1500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
       </c>
       <c r="T52" s="3">
+        <v>500</v>
+      </c>
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>786600</v>
+      </c>
+      <c r="E54" s="3">
         <v>783200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>646100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>475800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>417100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>372500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>345700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>299000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>276400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>269100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>272000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>280700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>287400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>231900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>137900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>146800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>157500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E57" s="3">
         <v>11100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>80000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>11000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>6700</v>
       </c>
       <c r="S58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E59" s="3">
         <v>50900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7300</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E60" s="3">
         <v>142000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>54200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>51000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="E61" s="3">
         <v>24200</v>
       </c>
       <c r="F61" s="3">
+        <v>24200</v>
+      </c>
+      <c r="G61" s="3">
         <v>14900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E62" s="3">
         <v>46300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>47200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>50800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>39400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>44600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>40600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7900</v>
-      </c>
-      <c r="P62" s="3">
-        <v>8100</v>
       </c>
       <c r="Q62" s="3">
         <v>8100</v>
       </c>
       <c r="R62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E66" s="3">
         <v>212600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>134800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>104700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>103900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-177700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-212700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-238300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-252800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-265800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-267700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-267300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-243700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-227800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-214900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-196700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-178000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-163200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-150300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-139700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>616900</v>
+      </c>
+      <c r="E76" s="3">
         <v>570700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>511300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>355900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>305100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>241800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>220300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>208300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>204300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>225700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>237000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>245400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>177800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>192700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>108300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>119400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>129200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E81" s="3">
         <v>39100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>140900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,40 +5217,41 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
@@ -5061,13 +5260,13 @@
         <v>500</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -5075,17 +5274,20 @@
       <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E89" s="3">
         <v>34000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>52400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-14400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3">
         <v>-9900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-300</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="E94" s="3">
         <v>6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>27200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>27100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-153600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>29700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-83600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,88 +6287,94 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="E100" s="3">
         <v>83400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>83600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>96400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>113300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6141,8 +6390,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E102" s="3">
         <v>124300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>28400</v>
       </c>
       <c r="F102" s="3">
         <v>28400</v>
       </c>
       <c r="G102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="H102" s="3">
         <v>33700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-164800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>95200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-96100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>98400</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3">
         <v>-10200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SWAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>SWAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E8" s="3">
         <v>180200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>161100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>144000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>131300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>120700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>93600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>84200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,135 +845,141 @@
         <v>24500</v>
       </c>
       <c r="E9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F9" s="3">
         <v>21100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>161500</v>
+      </c>
+      <c r="E10" s="3">
         <v>155700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>140000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>126500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>113400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>80700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E12" s="3">
         <v>36800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6100</v>
-      </c>
-      <c r="W12" s="3">
-        <v>5500</v>
       </c>
       <c r="X12" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1144,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E17" s="3">
         <v>147800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>101600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E18" s="3">
         <v>32400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-12100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-10100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,158 +1481,165 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-700</v>
       </c>
       <c r="K20" s="3">
         <v>-700</v>
       </c>
       <c r="L20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E21" s="3">
         <v>36400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-14100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-12300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-12300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>-9800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1611,10 +1651,10 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1632,16 +1672,16 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1650,101 +1690,107 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E23" s="3">
         <v>33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>40700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-11200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-96300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1753,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E26" s="3">
         <v>28900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>39100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>140900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-11200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="3">
         <v>28900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>140900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-12900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>700</v>
       </c>
       <c r="K32" s="3">
         <v>700</v>
       </c>
       <c r="L32" s="3">
+        <v>700</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E33" s="3">
         <v>28900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>140900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-12900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E35" s="3">
         <v>28900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>140900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-12900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,133 +2747,137 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>498100</v>
+      </c>
+      <c r="E41" s="3">
         <v>141500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>280900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>156600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>127800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>89200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>215300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>218300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>123100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>139000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>138100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>419200</v>
+      </c>
+      <c r="E42" s="3">
         <v>117100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>135900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>147900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>122900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>125000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>134900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>111800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>91800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>90500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>120400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>151900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3">
         <v>13100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>47300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>56300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>74600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>83200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,315 +2887,330 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E43" s="3">
         <v>96600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>84300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>71400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E44" s="3">
         <v>92100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>83300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>75100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>69000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>53400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7000</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1128500</v>
+      </c>
+      <c r="E46" s="3">
         <v>456400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>590800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>459300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>395300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>352000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>309900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>285900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>256000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>239600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>233100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>246300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>257900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>264300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>197600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>216700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>131100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>140600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>151500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6800</v>
       </c>
       <c r="M47" s="3">
         <v>6800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>6800</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3227,8 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3137,85 +3242,91 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E48" s="3">
         <v>90900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>85700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>54600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E49" s="3">
         <v>134500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3342,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E52" s="3">
         <v>102300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>104100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1700</v>
       </c>
       <c r="L52" s="3">
         <v>1700</v>
       </c>
       <c r="M52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N52" s="3">
         <v>1800</v>
       </c>
       <c r="O52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P52" s="3">
         <v>1700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1600</v>
       </c>
       <c r="Q52" s="3">
         <v>1600</v>
       </c>
       <c r="R52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S52" s="3">
         <v>1500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>500</v>
       </c>
       <c r="T52" s="3">
         <v>500</v>
       </c>
       <c r="U52" s="3">
+        <v>500</v>
+      </c>
+      <c r="V52" s="3">
         <v>600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1474000</v>
+      </c>
+      <c r="E54" s="3">
         <v>786600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>783200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>646100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>475800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>417100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>372500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>345700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>299000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>276400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>269100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>272000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>280700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>287400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>231900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>137900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>146800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>157500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E57" s="3">
         <v>12900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4000</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>80000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>6700</v>
       </c>
       <c r="T58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71300</v>
+      </c>
+      <c r="E59" s="3">
         <v>67400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7300</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E60" s="3">
         <v>80200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>51600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>730900</v>
+      </c>
+      <c r="E61" s="3">
         <v>24300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>24200</v>
       </c>
       <c r="F61" s="3">
         <v>24200</v>
       </c>
       <c r="G61" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H61" s="3">
         <v>14900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E62" s="3">
         <v>65200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>50800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>39400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7900</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>8100</v>
       </c>
       <c r="R62" s="3">
         <v>8100</v>
       </c>
       <c r="S62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>872700</v>
+      </c>
+      <c r="E66" s="3">
         <v>169700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>212600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>134800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>119900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>112100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>104700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>103900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E72" s="3">
         <v>31200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-177700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-212700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-238300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-252800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-267700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-267300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-243700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-227800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-214900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-196700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-178000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-163200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-150300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-139700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>601200</v>
+      </c>
+      <c r="E76" s="3">
         <v>616900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>570700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>511300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>355900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>305100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>241800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>220300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>208300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>204300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>225700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>237000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>245400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>177800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>192700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>108300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>119400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>129200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E81" s="3">
         <v>28900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>140900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-12900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,43 +5416,44 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>500</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
@@ -5263,13 +5462,13 @@
         <v>500</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -5277,17 +5476,20 @@
       <c r="U83" s="3">
         <v>300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E89" s="3">
         <v>39700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>52400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-14400</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3">
         <v>-9900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-11400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-300</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-83800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>27200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>27100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-153600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>29700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-83600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,94 +6533,100 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>83400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>83600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>96400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>113300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6393,8 +6642,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-140200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>124300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>28400</v>
       </c>
       <c r="G102" s="3">
         <v>28400</v>
       </c>
       <c r="H102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I102" s="3">
         <v>33700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-164800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>95200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-96100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>98400</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3">
         <v>-10200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9500</v>
       </c>
     </row>
